--- a/Unity/Assets/Config/Excel/UnionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/UnionConfig.xlsx
@@ -1,39 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0415C89-5E7C-45A9-A292-1E5DCA11C3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1905" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{EB8BF9CF-2C60-4CB9-87A0-39DDEF705B70}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,9 +46,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,15 +54,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{EDA88AC9-058A-4B8B-8FAB-5454A1AA1C48}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -67,9 +68,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,200 +81,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>升级经验</t>
+  </si>
+  <si>
+    <t>修炼上限</t>
+  </si>
+  <si>
+    <t>人员上限</t>
+  </si>
+  <si>
+    <t>捐献消耗金币</t>
+  </si>
+  <si>
+    <t>捐献消耗钻石</t>
+  </si>
+  <si>
+    <t>捐献增加经验</t>
+  </si>
+  <si>
+    <t>捐献增加贡献值</t>
+  </si>
+  <si>
+    <t>升级全员奖励</t>
+  </si>
+  <si>
+    <t>捐献增加家族金币</t>
+  </si>
+  <si>
+    <t>家族金币上限</t>
+  </si>
+  <si>
+    <t>消耗家族资金</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>XiuLianLevel</t>
+  </si>
+  <si>
+    <t>PeopleNum</t>
+  </si>
+  <si>
+    <t>DonateGold</t>
+  </si>
+  <si>
+    <t>DonateDiamond</t>
+  </si>
+  <si>
+    <t>DonateExp</t>
+  </si>
+  <si>
+    <t>DonateReward</t>
+  </si>
+  <si>
+    <t>UpAllReward</t>
+  </si>
+  <si>
+    <t>AddUnionGold</t>
+  </si>
+  <si>
+    <t>UnionGoldLimit</t>
+  </si>
+  <si>
+    <t>UnionGoldCost</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>int[]</t>
   </si>
   <si>
     <t>家族1级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+  </si>
+  <si>
+    <t>5,15</t>
+  </si>
+  <si>
+    <t>1,50000;16,10</t>
+  </si>
+  <si>
+    <t>20000,80000</t>
   </si>
   <si>
     <t>家族2级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,32</t>
   </si>
   <si>
     <t>家族3级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,34</t>
+  </si>
+  <si>
+    <t>1,100000;16,10</t>
   </si>
   <si>
     <t>家族4级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级经验</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,36</t>
   </si>
   <si>
     <t>家族5级</t>
   </si>
   <si>
+    <t>18,38</t>
+  </si>
+  <si>
+    <t>1,150000;16,10</t>
+  </si>
+  <si>
     <t>家族6级</t>
   </si>
   <si>
+    <t>20,40</t>
+  </si>
+  <si>
     <t>家族7级</t>
   </si>
   <si>
+    <t>22,42</t>
+  </si>
+  <si>
+    <t>1,200000;16,10</t>
+  </si>
+  <si>
     <t>家族8级</t>
   </si>
   <si>
+    <t>24,44</t>
+  </si>
+  <si>
     <t>家族9级</t>
   </si>
   <si>
+    <t>27,47</t>
+  </si>
+  <si>
+    <t>1,250000;16,10</t>
+  </si>
+  <si>
     <t>家族10级</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PeopleNum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DonateGold</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献增加经验</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DonateExp</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DonateReward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献增加贡献值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级全员奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpAllReward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,50000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,150000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,200000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,250000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>修炼上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>XiuLianLevel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献增加家族金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUnionGold</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,80000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献消耗金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnionGoldLimit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族金币上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献消耗钻石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DonateDiamond</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,32</t>
-  </si>
-  <si>
-    <t>14,34</t>
-  </si>
-  <si>
-    <t>10,30</t>
-  </si>
-  <si>
-    <t>16,36</t>
-  </si>
-  <si>
-    <t>18,38</t>
-  </si>
-  <si>
-    <t>20,40</t>
-  </si>
-  <si>
-    <t>22,42</t>
-  </si>
-  <si>
-    <t>24,44</t>
-  </si>
-  <si>
-    <t>27,47</t>
   </si>
   <si>
     <t>30,50</t>
@@ -284,8 +248,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -296,21 +266,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -318,39 +279,184 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,24 +465,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -457,22 +749,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,17 +1018,61 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -564,9 +1145,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1637,590 +2215,628 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:HW61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="19.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.625" style="3" customWidth="1"/>
-    <col min="15" max="231" width="8.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="19.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="18.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="18.625" style="2" customWidth="1"/>
+    <col min="16" max="231" width="8.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:231" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="4:4">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="4" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="J4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>41</v>
+      <c r="K5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
+    <row r="6" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8">
+        <v>500</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>180</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="8">
+        <v>50000000</v>
+      </c>
+      <c r="O6" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="H7" s="8">
+        <v>210000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>180</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7">
-        <v>500</v>
-      </c>
-      <c r="F6" s="7">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7">
-        <v>200000</v>
-      </c>
-      <c r="I6" s="7">
-        <v>180</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="7">
-        <v>50000000</v>
-      </c>
-    </row>
-    <row r="7" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7">
-        <v>210000</v>
-      </c>
-      <c r="I7" s="7">
-        <v>180</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>28</v>
+      <c r="K7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="7">
+        <v>31</v>
+      </c>
+      <c r="N7" s="8">
         <f>N6+50000000</f>
         <v>100000000</v>
       </c>
+      <c r="O7" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="7">
+    <row r="8" ht="20.1" customHeight="1" spans="3:231">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="8">
         <v>1800</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>21</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>220000</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>180</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="J8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="L8" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="M8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="7">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8">
         <f t="shared" ref="N8:N15" si="0">N7+50000000</f>
         <v>150000000</v>
       </c>
+      <c r="O8" s="8">
+        <v>100</v>
+      </c>
       <c r="HW8"/>
     </row>
-    <row r="9" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="7">
+    <row r="9" ht="20.1" customHeight="1" spans="3:231">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="8">
         <v>2800</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>4</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>24</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>230000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>180</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="L9" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="M9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="7">
+        <v>31</v>
+      </c>
+      <c r="N9" s="8">
         <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
+      <c r="O9" s="8">
+        <v>100</v>
+      </c>
       <c r="HW9"/>
     </row>
-    <row r="10" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="7">
+    <row r="10" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8">
         <v>4000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>27</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>240000</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>180</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
+      <c r="J10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="7">
+        <v>31</v>
+      </c>
+      <c r="N10" s="8">
         <f t="shared" si="0"/>
         <v>250000000</v>
       </c>
+      <c r="O10" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="11" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="7">
+    <row r="11" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C11" s="8">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="8">
         <v>5500</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>6</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>30</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>250000</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>180</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
+      <c r="J11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7">
+        <v>31</v>
+      </c>
+      <c r="N11" s="8">
         <f t="shared" si="0"/>
         <v>300000000</v>
       </c>
+      <c r="O11" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="12" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="7">
+    <row r="12" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="8">
         <v>7500</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>7</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>33</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>260000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>180</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="J12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
+      <c r="N12" s="8">
         <f t="shared" si="0"/>
         <v>350000000</v>
       </c>
+      <c r="O12" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="13" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="7">
+    <row r="13" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C13" s="8">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8">
         <v>10000</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>8</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>36</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>270000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>180</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="J13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
+      <c r="N13" s="8">
         <f t="shared" si="0"/>
         <v>400000000</v>
       </c>
+      <c r="O13" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="14" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="7">
+    <row r="14" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C14" s="8">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="8">
         <v>13000</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>9</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>38</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>285000</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>180</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>32</v>
+      <c r="J14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="7">
+        <v>31</v>
+      </c>
+      <c r="N14" s="8">
         <f t="shared" si="0"/>
         <v>450000000</v>
       </c>
+      <c r="O14" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="7">
+    <row r="15" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C15" s="8">
         <v>10</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="8">
         <v>16500</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>10</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>40</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>300000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>180</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
+      <c r="K15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="7">
+        <v>31</v>
+      </c>
+      <c r="N15" s="8">
         <f t="shared" si="0"/>
         <v>500000000</v>
       </c>
+      <c r="O15" s="8">
+        <v>100</v>
+      </c>
     </row>
-    <row r="16" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="21" ht="20.1" customHeight="1"/>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="36" ht="20.1" customHeight="1"/>
+    <row r="37" ht="20.1" customHeight="1"/>
+    <row r="38" ht="20.1" customHeight="1"/>
+    <row r="39" ht="20.1" customHeight="1"/>
+    <row r="40" ht="20.1" customHeight="1"/>
+    <row r="41" ht="20.1" customHeight="1"/>
+    <row r="42" ht="20.1" customHeight="1"/>
+    <row r="43" ht="20.1" customHeight="1"/>
+    <row r="44" ht="20.1" customHeight="1"/>
+    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="46" ht="20.1" customHeight="1"/>
+    <row r="47" ht="20.1" customHeight="1"/>
+    <row r="48" ht="20.1" customHeight="1"/>
+    <row r="49" ht="20.1" customHeight="1"/>
+    <row r="50" ht="20.1" customHeight="1"/>
+    <row r="51" ht="20.1" customHeight="1"/>
+    <row r="52" ht="20.1" customHeight="1"/>
+    <row r="53" ht="20.1" customHeight="1"/>
+    <row r="54" ht="20.1" customHeight="1"/>
+    <row r="55" ht="20.1" customHeight="1"/>
+    <row r="56" ht="20.1" customHeight="1"/>
+    <row r="57" ht="20.1" customHeight="1"/>
+    <row r="58" ht="20.1" customHeight="1"/>
+    <row r="59" ht="20.1" customHeight="1"/>
+    <row r="60" ht="20.1" customHeight="1"/>
+    <row r="61" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
